--- a/use-cases/noisePollution/input/InputStations.xlsx
+++ b/use-cases/noisePollution/input/InputStations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/PycharmProjects/Mapeathor/use-cases/noisePollution/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ednaruckhaus/Documents/GitHub/Mapeathor/use-cases/noisePollution/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D91C9-27C3-A94D-80C0-F363F4E4A4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0AFD05-54E1-0E42-8BAC-83910D6EF77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,226 +154,226 @@
     <t>sosa:resultTime</t>
   </si>
   <si>
+    <t>sosa:observedProperty</t>
+  </si>
+  <si>
+    <t>sosa:madeBySensor</t>
+  </si>
+  <si>
+    <t>idPunto</t>
+  </si>
+  <si>
+    <t>geo:lat</t>
+  </si>
+  <si>
+    <t>geo:long</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>esequip</t>
+  </si>
+  <si>
+    <t>esequip-kos</t>
+  </si>
+  <si>
+    <t>https://datos.ign.es/def/geo_core#</t>
+  </si>
+  <si>
+    <t>schema:name</t>
+  </si>
+  <si>
+    <t>esequip:fechaAlta</t>
+  </si>
+  <si>
+    <t>esequip:fechaBaja</t>
+  </si>
+  <si>
+    <t>idEstacion</t>
+  </si>
+  <si>
+    <t>noise:validada</t>
+  </si>
+  <si>
+    <t>noise:tipoEmisorPredominante</t>
+  </si>
+  <si>
+    <t>noise:tipoMedicion</t>
+  </si>
+  <si>
+    <t>noise:tipoIntervaloReferencia</t>
+  </si>
+  <si>
+    <t>geo_core:xERTS89</t>
+  </si>
+  <si>
+    <t>geo_core:yERTS90</t>
+  </si>
+  <si>
+    <t>schema:address</t>
+  </si>
+  <si>
+    <t>idObservacion</t>
+  </si>
+  <si>
+    <t>examples/Contaminacion/observaciones.csv</t>
+  </si>
+  <si>
+    <t>examples/Contaminacion/estaciones.csv</t>
+  </si>
+  <si>
+    <t>noise:EstacionMedida</t>
+  </si>
+  <si>
+    <t>noise-recurso</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/recurso/medio-ambiente/contaminacion-acustica/</t>
+  </si>
+  <si>
+    <t>noise:Observacion</t>
+  </si>
+  <si>
+    <t>geosparql:hasGeometry</t>
+  </si>
+  <si>
+    <t>sf:Point</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>noise-recurso:observacion/{idx}</t>
+  </si>
+  <si>
+    <t>http://www.opengis.net/ont/sf#</t>
+  </si>
+  <si>
+    <t>noise-recurso:estacion-medida/{identifier}</t>
+  </si>
+  <si>
+    <t>idDireccion</t>
+  </si>
+  <si>
+    <t>locn</t>
+  </si>
+  <si>
+    <t>locn:fullAddress</t>
+  </si>
+  <si>
+    <t>esequip:tipoEquipamiento</t>
+  </si>
+  <si>
+    <t>{madeBySensor}</t>
+  </si>
+  <si>
+    <t>{identifier}</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>esequip-kos:estacion-medida-contaminacion-acustica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{identifier} </t>
+  </si>
+  <si>
+    <t>noise-recurso:punto/{identifier}</t>
+  </si>
+  <si>
+    <t>noise-recurso:direccion/{identifier}</t>
+  </si>
+  <si>
+    <t>{streetAddress}</t>
+  </si>
+  <si>
+    <t>{long}</t>
+  </si>
+  <si>
+    <t>{lat}</t>
+  </si>
+  <si>
+    <t>{xETRS89}</t>
+  </si>
+  <si>
+    <t>{yETRS89}</t>
+  </si>
+  <si>
+    <t>{fechaAlta}</t>
+  </si>
+  <si>
+    <t>{fechaBaja}</t>
+  </si>
+  <si>
+    <t>emisor-kos</t>
+  </si>
+  <si>
+    <t>medicion-kos</t>
+  </si>
+  <si>
+    <t>intervalo-kos</t>
+  </si>
+  <si>
+    <t>http://vocab.linkeddata.es/datosabiertos/def/urbanismo-infraestructuras/equipamiento-municipal/</t>
+  </si>
+  <si>
+    <t>http://vocab.linkeddata.es/datosabiertos/kos/urbanismo-infraestructuras/equipamiento/tipo-equipamiento/</t>
+  </si>
+  <si>
+    <t>http://vocab.linkeddata.es/datosabiertos/kos/medio-ambiente/contaminacion-acustica/tipo-emisor-predominante/</t>
+  </si>
+  <si>
+    <t>http://vocab.linkeddata.es/datosabiertos/kos/medio-ambiente/contaminacion-acustica/tipo-medicion/</t>
+  </si>
+  <si>
+    <t>http://vocab.linkeddata.es/datosabiertos/kos/medio-ambiente/contaminacion-acustica/tipo-intervalo-referencia/</t>
+  </si>
+  <si>
+    <t>{hasResultTime}</t>
+  </si>
+  <si>
+    <t>{hasSimpleResult}</t>
+  </si>
+  <si>
+    <t>noise-recurso:estaciondemedida/{identifier}</t>
+  </si>
+  <si>
+    <t>emisor-kos:{tipoEmisorPredominante}</t>
+  </si>
+  <si>
+    <t>intervalo-kos:{tipoEmisorPredominante}</t>
+  </si>
+  <si>
+    <t>medicion-kos:{tipoEmisorPredominante}</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/def/medio-ambiente/contaminacion-acustica#</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/ns/locn#</t>
+  </si>
+  <si>
+    <t>esdir:DireccionPostal</t>
+  </si>
+  <si>
+    <t>geo_core</t>
+  </si>
+  <si>
+    <t>esdir</t>
+  </si>
+  <si>
+    <t>http://vocab.linkeddata.es/datosabiertos/def/urbanismo-infraestructuras/direccion-postal#</t>
+  </si>
+  <si>
+    <t>noise:{observedProperty}</t>
+  </si>
+  <si>
     <t>dateTime</t>
-  </si>
-  <si>
-    <t>sosa:observedProperty</t>
-  </si>
-  <si>
-    <t>sosa:madeBySensor</t>
-  </si>
-  <si>
-    <t>idPunto</t>
-  </si>
-  <si>
-    <t>geo:lat</t>
-  </si>
-  <si>
-    <t>geo:long</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>esequip</t>
-  </si>
-  <si>
-    <t>esequip-kos</t>
-  </si>
-  <si>
-    <t>https://datos.ign.es/def/geo_core#</t>
-  </si>
-  <si>
-    <t>schema:name</t>
-  </si>
-  <si>
-    <t>esequip:fechaAlta</t>
-  </si>
-  <si>
-    <t>esequip:fechaBaja</t>
-  </si>
-  <si>
-    <t>idEstacion</t>
-  </si>
-  <si>
-    <t>noise:validada</t>
-  </si>
-  <si>
-    <t>noise:tipoEmisorPredominante</t>
-  </si>
-  <si>
-    <t>noise:tipoMedicion</t>
-  </si>
-  <si>
-    <t>noise:tipoIntervaloReferencia</t>
-  </si>
-  <si>
-    <t>geo_core:xERTS89</t>
-  </si>
-  <si>
-    <t>geo_core:yERTS90</t>
-  </si>
-  <si>
-    <t>schema:address</t>
-  </si>
-  <si>
-    <t>idObservacion</t>
-  </si>
-  <si>
-    <t>examples/Contaminacion/observaciones.csv</t>
-  </si>
-  <si>
-    <t>examples/Contaminacion/estaciones.csv</t>
-  </si>
-  <si>
-    <t>noise:EstacionMedida</t>
-  </si>
-  <si>
-    <t>noise-recurso</t>
-  </si>
-  <si>
-    <t>http://vocab.ciudadesabiertas.es/recurso/medio-ambiente/contaminacion-acustica/</t>
-  </si>
-  <si>
-    <t>noise:Observacion</t>
-  </si>
-  <si>
-    <t>geosparql:hasGeometry</t>
-  </si>
-  <si>
-    <t>sf:Point</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>noise-recurso:observacion/{idx}</t>
-  </si>
-  <si>
-    <t>http://www.opengis.net/ont/sf#</t>
-  </si>
-  <si>
-    <t>noise-recurso:estacion-medida/{identifier}</t>
-  </si>
-  <si>
-    <t>idDireccion</t>
-  </si>
-  <si>
-    <t>locn</t>
-  </si>
-  <si>
-    <t>locn:fullAddress</t>
-  </si>
-  <si>
-    <t>esequip:tipoEquipamiento</t>
-  </si>
-  <si>
-    <t>{madeBySensor}</t>
-  </si>
-  <si>
-    <t>{identifier}</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>esequip-kos:estacion-medida-contaminacion-acustica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{identifier} </t>
-  </si>
-  <si>
-    <t>noise-recurso:punto/{identifier}</t>
-  </si>
-  <si>
-    <t>noise-recurso:direccion/{identifier}</t>
-  </si>
-  <si>
-    <t>{streetAddress}</t>
-  </si>
-  <si>
-    <t>{long}</t>
-  </si>
-  <si>
-    <t>{lat}</t>
-  </si>
-  <si>
-    <t>{xETRS89}</t>
-  </si>
-  <si>
-    <t>{yETRS89}</t>
-  </si>
-  <si>
-    <t>{fechaAlta}</t>
-  </si>
-  <si>
-    <t>{fechaBaja}</t>
-  </si>
-  <si>
-    <t>emisor-kos</t>
-  </si>
-  <si>
-    <t>medicion-kos</t>
-  </si>
-  <si>
-    <t>intervalo-kos</t>
-  </si>
-  <si>
-    <t>http://vocab.linkeddata.es/datosabiertos/def/urbanismo-infraestructuras/equipamiento-municipal/</t>
-  </si>
-  <si>
-    <t>http://vocab.linkeddata.es/datosabiertos/kos/urbanismo-infraestructuras/equipamiento/tipo-equipamiento/</t>
-  </si>
-  <si>
-    <t>http://vocab.linkeddata.es/datosabiertos/kos/medio-ambiente/contaminacion-acustica/tipo-emisor-predominante/</t>
-  </si>
-  <si>
-    <t>http://vocab.linkeddata.es/datosabiertos/kos/medio-ambiente/contaminacion-acustica/tipo-medicion/</t>
-  </si>
-  <si>
-    <t>http://vocab.linkeddata.es/datosabiertos/kos/medio-ambiente/contaminacion-acustica/tipo-intervalo-referencia/</t>
-  </si>
-  <si>
-    <t>{hasResultTime}</t>
-  </si>
-  <si>
-    <t>{hasSimpleResult}</t>
-  </si>
-  <si>
-    <t>noise-recurso:estaciondemedida/{identifier}</t>
-  </si>
-  <si>
-    <t>emisor-kos:{tipoEmisorPredominante}</t>
-  </si>
-  <si>
-    <t>intervalo-kos:{tipoEmisorPredominante}</t>
-  </si>
-  <si>
-    <t>medicion-kos:{tipoEmisorPredominante}</t>
-  </si>
-  <si>
-    <t>http://vocab.ciudadesabiertas.es/def/medio-ambiente/contaminacion-acustica#</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/ns/locn#</t>
-  </si>
-  <si>
-    <t>esdir:DireccionPostal</t>
-  </si>
-  <si>
-    <t>geo_core</t>
-  </si>
-  <si>
-    <t>esdir</t>
-  </si>
-  <si>
-    <t>http://vocab.linkeddata.es/datosabiertos/def/urbanismo-infraestructuras/direccion-postal#</t>
-  </si>
-  <si>
-    <t>noise:{observedProperty}</t>
   </si>
 </sst>
 </file>
@@ -798,10 +798,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,10 +814,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,10 +870,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,58 +894,58 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -985,18 +985,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1007,18 +1007,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1029,18 +1029,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1051,18 +1051,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1105,46 +1105,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,18 +1219,18 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>36</v>
@@ -1239,147 +1239,147 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1387,47 +1387,47 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1435,69 +1435,69 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
